--- a/biology/Zoologie/Coahuilaceratops/Coahuilaceratops.xlsx
+++ b/biology/Zoologie/Coahuilaceratops/Coahuilaceratops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coahuilaceratops magnacuerna
 Coahuilaceratops (signifiant « le visage à cornes de Coahuila ») est un genre éteint de dinosaures herbivores cératopsiens qui a habité dans ce qui est maintenant l’État de Coahuila, dans le nord du Mexique. Les restes de Coahuilaceratops ont été retrouvés dans les couches du Crétacé supérieur situées à la limite entre les étages du Campanien et du Maastrichtien, soit il y a environ 72 Ma (millions d'années).
-L'espèce type et seule espèce, Coahuilaceratops magnacuerna, a été décrite par Mark A. Loewen (d) et son équipe en 2010[1].
-Il a été formellement décrit en 2010, bien que le nom soit apparu comme nomen nudum depuis 2008[2].
+L'espèce type et seule espèce, Coahuilaceratops magnacuerna, a été décrite par Mark A. Loewen (d) et son équipe en 2010.
+Il a été formellement décrit en 2010, bien que le nom soit apparu comme nomen nudum depuis 2008.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coahuilaceratops possédait les plus grandes cornes de tous les dinosaures actuellement connus. On estime que leur longueur pouvait atteindre 1,20 mètre.
 </t>
@@ -545,9 +559,11 @@
           <t>Cladogramme Ceratopsidae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme des Ceratopsidae ci-dessous présente les résultats des analyses phylogénétiques de Dalman, Jasinski, &amp; Lucas en 2022[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme des Ceratopsidae ci-dessous présente les résultats des analyses phylogénétiques de Dalman, Jasinski, &amp; Lucas en 2022,.
 </t>
         </is>
       </c>
